--- a/Metodos Numericos/codigo_y mas/excel/Serie de Taylor.xlsx
+++ b/Metodos Numericos/codigo_y mas/excel/Serie de Taylor.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Univercidad\Ciclo 5\Metodos Numericos\codigo_y mas\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9E8675-5111-4AD0-AAFB-3983F8D492B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9553ED4-C667-4DED-9C04-BB161E09D4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0EF30E29-5CB6-4172-B728-A3E313FDB94D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{0EF30E29-5CB6-4172-B728-A3E313FDB94D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>x</t>
   </si>
@@ -58,12 +59,68 @@
   <si>
     <t>hi</t>
   </si>
+  <si>
+    <t>f(x)=-SENX-COSX</t>
+  </si>
+  <si>
+    <t>Grados</t>
+  </si>
+  <si>
+    <t>f(x)=cos(x)</t>
+  </si>
+  <si>
+    <t>g(x)=sen(x)</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>xi</t>
+  </si>
+  <si>
+    <t>xr</t>
+  </si>
+  <si>
+    <t>Xu</t>
+  </si>
+  <si>
+    <t>f(xi)</t>
+  </si>
+  <si>
+    <t>f(xu)</t>
+  </si>
+  <si>
+    <t>f(xi)*f(xu)</t>
+  </si>
+  <si>
+    <t>f(xr)</t>
+  </si>
+  <si>
+    <t>f(xi)*f(xr)</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Er%</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="169" formatCode="0.000000"/>
+    <numFmt numFmtId="172" formatCode="0.0000"/>
+    <numFmt numFmtId="175" formatCode="0.000000000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,16 +128,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -88,11 +165,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -102,6 +194,26 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -523,6 +635,556 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f(x)=cos(x)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja2!$C$5:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52359877559829882</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0471975511965976</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5707963267948966</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0943951023931953</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.617993877991494</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1415926535897927</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6651914291880914</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.1887902047863905</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.7123889803846897</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.2359877559829888</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.759586531581288</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.2831853071795871</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja2!$D$5:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86602540378443871</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1257422745431001E-17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.49999999999999978</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.86602540378443849</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.86602540378443904</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.50000000000000044</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.83772268236293E-16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.50000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.86602540378443882</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-607E-4FF2-B5AB-B3820B930C92}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>g(x)=sen(x)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja2!$C$5:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52359877559829882</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0471975511965976</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5707963267948966</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0943951023931953</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.617993877991494</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1415926535897927</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6651914291880914</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.1887902047863905</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.7123889803846897</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.2359877559829888</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.759586531581288</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.2831853071795871</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja2!$E$5:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8660254037844386</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86602540378443871</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50000000000000033</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.6660405534092462E-16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.49999999999999939</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.86602540378443837</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.8660254037844386</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.49999999999999967</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.4314872871840123E-16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-607E-4FF2-B5AB-B3820B930C92}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="39408367"/>
+        <c:axId val="39409615"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="39408367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="39409615"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="39409615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="39408367"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-PE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -563,7 +1225,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1455,6 +2673,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11032192-59A6-42D3-ACE0-46D7D7EE1049}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -1754,8 +3013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9659BA5-8077-4410-A4DA-D8D3107C2C42}">
   <dimension ref="A5:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1967,6 +3226,9 @@
         <f>(-(0.1*(A27^4))-(0.15*(A27^3))-(0.5*(A27^2))-(0.25*A27)+1.2)</f>
         <v>1.2</v>
       </c>
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -2226,4 +3488,1285 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21B7CB6D-C9A9-4475-AD8A-328F54DACBB4}">
+  <dimension ref="B2:M40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="7">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <f t="shared" ref="D5:D17" si="0">COS(C5)</f>
+        <v>1</v>
+      </c>
+      <c r="E5" s="7">
+        <f t="shared" ref="E5:E17" si="1">SIN(C5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="7">
+        <v>30</v>
+      </c>
+      <c r="C6" s="8">
+        <f>C5+PI()/6</f>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" si="0"/>
+        <v>0.86602540378443871</v>
+      </c>
+      <c r="E6" s="7">
+        <f t="shared" si="1"/>
+        <v>0.49999999999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="7">
+        <f>B6+30</f>
+        <v>60</v>
+      </c>
+      <c r="C7" s="8">
+        <f t="shared" ref="C7:C17" si="2">C6+PI()/6</f>
+        <v>1.0471975511965976</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" si="0"/>
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="E7" s="7">
+        <f t="shared" si="1"/>
+        <v>0.8660254037844386</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="7">
+        <f t="shared" ref="B8:B17" si="3">B7+30</f>
+        <v>90</v>
+      </c>
+      <c r="C8" s="8">
+        <f t="shared" si="2"/>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="D8" s="7">
+        <f t="shared" si="0"/>
+        <v>6.1257422745431001E-17</v>
+      </c>
+      <c r="E8" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="7">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="C9" s="8">
+        <f t="shared" si="2"/>
+        <v>2.0943951023931953</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" si="0"/>
+        <v>-0.49999999999999978</v>
+      </c>
+      <c r="E9" s="7">
+        <f t="shared" si="1"/>
+        <v>0.86602540378443871</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="7">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="C10" s="8">
+        <f t="shared" si="2"/>
+        <v>2.617993877991494</v>
+      </c>
+      <c r="D10" s="7">
+        <f t="shared" si="0"/>
+        <v>-0.86602540378443849</v>
+      </c>
+      <c r="E10" s="7">
+        <f t="shared" si="1"/>
+        <v>0.50000000000000033</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="7">
+        <f t="shared" si="3"/>
+        <v>180</v>
+      </c>
+      <c r="C11" s="8">
+        <f t="shared" si="2"/>
+        <v>3.1415926535897927</v>
+      </c>
+      <c r="D11" s="7">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E11" s="7">
+        <f t="shared" si="1"/>
+        <v>5.6660405534092462E-16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="7">
+        <f t="shared" si="3"/>
+        <v>210</v>
+      </c>
+      <c r="C12" s="8">
+        <f t="shared" si="2"/>
+        <v>3.6651914291880914</v>
+      </c>
+      <c r="D12" s="7">
+        <f t="shared" si="0"/>
+        <v>-0.86602540378443904</v>
+      </c>
+      <c r="E12" s="7">
+        <f t="shared" si="1"/>
+        <v>-0.49999999999999939</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="7">
+        <f t="shared" si="3"/>
+        <v>240</v>
+      </c>
+      <c r="C13" s="8">
+        <f t="shared" si="2"/>
+        <v>4.1887902047863905</v>
+      </c>
+      <c r="D13" s="7">
+        <f t="shared" si="0"/>
+        <v>-0.50000000000000044</v>
+      </c>
+      <c r="E13" s="7">
+        <f t="shared" si="1"/>
+        <v>-0.86602540378443837</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="7">
+        <f t="shared" si="3"/>
+        <v>270</v>
+      </c>
+      <c r="C14" s="8">
+        <f t="shared" si="2"/>
+        <v>4.7123889803846897</v>
+      </c>
+      <c r="D14" s="7">
+        <f t="shared" si="0"/>
+        <v>-1.83772268236293E-16</v>
+      </c>
+      <c r="E14" s="7">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="7">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="C15" s="8">
+        <f t="shared" si="2"/>
+        <v>5.2359877559829888</v>
+      </c>
+      <c r="D15" s="7">
+        <f t="shared" si="0"/>
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="E15" s="7">
+        <f t="shared" si="1"/>
+        <v>-0.8660254037844386</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="7">
+        <f>B15+30</f>
+        <v>330</v>
+      </c>
+      <c r="C16" s="8">
+        <f t="shared" si="2"/>
+        <v>5.759586531581288</v>
+      </c>
+      <c r="D16" s="7">
+        <f t="shared" si="0"/>
+        <v>0.86602540378443882</v>
+      </c>
+      <c r="E16" s="7">
+        <f t="shared" si="1"/>
+        <v>-0.49999999999999967</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="7">
+        <f t="shared" si="3"/>
+        <v>360</v>
+      </c>
+      <c r="C17" s="8">
+        <f t="shared" si="2"/>
+        <v>6.2831853071795871</v>
+      </c>
+      <c r="D17" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E17" s="7">
+        <f t="shared" si="1"/>
+        <v>6.4314872871840123E-16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="11">
+        <v>1</v>
+      </c>
+      <c r="C21" s="9">
+        <v>0</v>
+      </c>
+      <c r="D21" s="9">
+        <f>(E21+C21)/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="9">
+        <v>1</v>
+      </c>
+      <c r="F21" s="10">
+        <f>SIN(C21)-COS(C21)</f>
+        <v>-1</v>
+      </c>
+      <c r="G21" s="10">
+        <f>SIN(E21)-COS(E21)</f>
+        <v>0.30116867893975674</v>
+      </c>
+      <c r="H21" s="10">
+        <f>F21*G21</f>
+        <v>-0.30116867893975674</v>
+      </c>
+      <c r="I21" s="10">
+        <f>SIN(D21)-COS(D21)</f>
+        <v>-0.39815702328616975</v>
+      </c>
+      <c r="J21" s="10">
+        <f>F21*I21</f>
+        <v>0.39815702328616975</v>
+      </c>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="11">
+        <v>2</v>
+      </c>
+      <c r="C22" s="9">
+        <f>IF(J21&lt;0,C21,D21)</f>
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="9">
+        <f t="shared" ref="D22:D40" si="4">(E22+C22)/2</f>
+        <v>0.75</v>
+      </c>
+      <c r="E22" s="9">
+        <f>IF(J21&lt;0,D21,E21)</f>
+        <v>1</v>
+      </c>
+      <c r="F22" s="10">
+        <f t="shared" ref="F22:F40" si="5">SIN(C22)-COS(C22)</f>
+        <v>-0.39815702328616975</v>
+      </c>
+      <c r="G22" s="10">
+        <f t="shared" ref="G22:G40" si="6">SIN(E22)-COS(E22)</f>
+        <v>0.30116867893975674</v>
+      </c>
+      <c r="H22" s="10">
+        <f t="shared" ref="H22:H40" si="7">F22*G22</f>
+        <v>-0.1199124247136817</v>
+      </c>
+      <c r="I22" s="10">
+        <f t="shared" ref="I22:I40" si="8">SIN(D22)-COS(D22)</f>
+        <v>-5.0050108850486774E-2</v>
+      </c>
+      <c r="J22" s="10">
+        <f t="shared" ref="J22:J40" si="9">F22*I22</f>
+        <v>1.9927802355058595E-2</v>
+      </c>
+      <c r="K22" s="10">
+        <f>ABS((D22-D21)/D22)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L22" s="10">
+        <f>ABS(K22/D22)</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="M22" s="10">
+        <f t="shared" ref="M22:M30" si="10">L22</f>
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="11">
+        <v>3</v>
+      </c>
+      <c r="C23" s="9">
+        <f t="shared" ref="C23:C40" si="11">IF(J22&lt;0,C22,D22)</f>
+        <v>0.75</v>
+      </c>
+      <c r="D23" s="9">
+        <f t="shared" si="4"/>
+        <v>0.875</v>
+      </c>
+      <c r="E23" s="9">
+        <f t="shared" ref="E23:E40" si="12">IF(J22&lt;0,D22,E22)</f>
+        <v>1</v>
+      </c>
+      <c r="F23" s="10">
+        <f t="shared" si="5"/>
+        <v>-5.0050108850486774E-2</v>
+      </c>
+      <c r="G23" s="10">
+        <f t="shared" si="6"/>
+        <v>0.30116867893975674</v>
+      </c>
+      <c r="H23" s="10">
+        <f t="shared" si="7"/>
+        <v>-1.5073525163292129E-2</v>
+      </c>
+      <c r="I23" s="10">
+        <f t="shared" si="8"/>
+        <v>0.126546644072702</v>
+      </c>
+      <c r="J23" s="10">
+        <f t="shared" si="9"/>
+        <v>-6.3336733105025418E-3</v>
+      </c>
+      <c r="K23" s="10">
+        <f t="shared" ref="K23:K40" si="13">ABS((D23-D22)/D23)</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="L23" s="10">
+        <f t="shared" ref="L23:L40" si="14">ABS(K23/D23)</f>
+        <v>0.16326530612244897</v>
+      </c>
+      <c r="M23" s="10">
+        <f t="shared" si="10"/>
+        <v>0.16326530612244897</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="11">
+        <v>4</v>
+      </c>
+      <c r="C24" s="9">
+        <f t="shared" si="11"/>
+        <v>0.75</v>
+      </c>
+      <c r="D24" s="9">
+        <f t="shared" si="4"/>
+        <v>0.8125</v>
+      </c>
+      <c r="E24" s="9">
+        <f t="shared" si="12"/>
+        <v>0.875</v>
+      </c>
+      <c r="F24" s="10">
+        <f t="shared" si="5"/>
+        <v>-5.0050108850486774E-2</v>
+      </c>
+      <c r="G24" s="10">
+        <f t="shared" si="6"/>
+        <v>0.126546644072702</v>
+      </c>
+      <c r="H24" s="10">
+        <f t="shared" si="7"/>
+        <v>-6.3336733105025418E-3</v>
+      </c>
+      <c r="I24" s="10">
+        <f t="shared" si="8"/>
+        <v>3.8323093040207756E-2</v>
+      </c>
+      <c r="J24" s="10">
+        <f t="shared" si="9"/>
+        <v>-1.9180749781497303E-3</v>
+      </c>
+      <c r="K24" s="10">
+        <f t="shared" si="13"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="L24" s="10">
+        <f t="shared" si="14"/>
+        <v>9.4674556213017763E-2</v>
+      </c>
+      <c r="M24" s="10">
+        <f t="shared" si="10"/>
+        <v>9.4674556213017763E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="11">
+        <v>5</v>
+      </c>
+      <c r="C25" s="9">
+        <f t="shared" si="11"/>
+        <v>0.75</v>
+      </c>
+      <c r="D25" s="9">
+        <f t="shared" si="4"/>
+        <v>0.78125</v>
+      </c>
+      <c r="E25" s="9">
+        <f t="shared" si="12"/>
+        <v>0.8125</v>
+      </c>
+      <c r="F25" s="10">
+        <f t="shared" si="5"/>
+        <v>-5.0050108850486774E-2</v>
+      </c>
+      <c r="G25" s="10">
+        <f t="shared" si="6"/>
+        <v>3.8323093040207756E-2</v>
+      </c>
+      <c r="H25" s="10">
+        <f t="shared" si="7"/>
+        <v>-1.9180749781497303E-3</v>
+      </c>
+      <c r="I25" s="10">
+        <f t="shared" si="8"/>
+        <v>-5.8663721115459477E-3</v>
+      </c>
+      <c r="J25" s="10">
+        <f t="shared" si="9"/>
+        <v>2.9361256274033464E-4</v>
+      </c>
+      <c r="K25" s="10">
+        <f t="shared" si="13"/>
+        <v>0.04</v>
+      </c>
+      <c r="L25" s="10">
+        <f t="shared" si="14"/>
+        <v>5.1200000000000002E-2</v>
+      </c>
+      <c r="M25" s="10">
+        <f t="shared" si="10"/>
+        <v>5.1200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="11">
+        <v>6</v>
+      </c>
+      <c r="C26" s="9">
+        <f t="shared" si="11"/>
+        <v>0.78125</v>
+      </c>
+      <c r="D26" s="9">
+        <f t="shared" si="4"/>
+        <v>0.796875</v>
+      </c>
+      <c r="E26" s="9">
+        <f t="shared" si="12"/>
+        <v>0.8125</v>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" si="5"/>
+        <v>-5.8663721115459477E-3</v>
+      </c>
+      <c r="G26" s="10">
+        <f t="shared" si="6"/>
+        <v>3.8323093040207756E-2</v>
+      </c>
+      <c r="H26" s="10">
+        <f t="shared" si="7"/>
+        <v>-2.248175242392554E-4</v>
+      </c>
+      <c r="I26" s="10">
+        <f t="shared" si="8"/>
+        <v>1.623034166690196E-2</v>
+      </c>
+      <c r="J26" s="10">
+        <f t="shared" si="9"/>
+        <v>-9.521322371557582E-5</v>
+      </c>
+      <c r="K26" s="10">
+        <f t="shared" si="13"/>
+        <v>1.9607843137254902E-2</v>
+      </c>
+      <c r="L26" s="10">
+        <f t="shared" si="14"/>
+        <v>2.4605920799692427E-2</v>
+      </c>
+      <c r="M26" s="10">
+        <f t="shared" si="10"/>
+        <v>2.4605920799692427E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="11">
+        <v>7</v>
+      </c>
+      <c r="C27" s="9">
+        <f t="shared" si="11"/>
+        <v>0.78125</v>
+      </c>
+      <c r="D27" s="9">
+        <f t="shared" si="4"/>
+        <v>0.7890625</v>
+      </c>
+      <c r="E27" s="9">
+        <f t="shared" si="12"/>
+        <v>0.796875</v>
+      </c>
+      <c r="F27" s="10">
+        <f t="shared" si="5"/>
+        <v>-5.8663721115459477E-3</v>
+      </c>
+      <c r="G27" s="10">
+        <f t="shared" si="6"/>
+        <v>1.623034166690196E-2</v>
+      </c>
+      <c r="H27" s="10">
+        <f t="shared" si="7"/>
+        <v>-9.521322371557582E-5</v>
+      </c>
+      <c r="I27" s="10">
+        <f t="shared" si="8"/>
+        <v>5.1821429233250837E-3</v>
+      </c>
+      <c r="J27" s="10">
+        <f t="shared" si="9"/>
+        <v>-3.0400378723439461E-5</v>
+      </c>
+      <c r="K27" s="10">
+        <f t="shared" si="13"/>
+        <v>9.9009900990099011E-3</v>
+      </c>
+      <c r="L27" s="10">
+        <f t="shared" si="14"/>
+        <v>1.2547789432408588E-2</v>
+      </c>
+      <c r="M27" s="10">
+        <f t="shared" si="10"/>
+        <v>1.2547789432408588E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="11">
+        <v>8</v>
+      </c>
+      <c r="C28" s="9">
+        <f t="shared" si="11"/>
+        <v>0.78125</v>
+      </c>
+      <c r="D28" s="9">
+        <f t="shared" si="4"/>
+        <v>0.78515625</v>
+      </c>
+      <c r="E28" s="9">
+        <f t="shared" si="12"/>
+        <v>0.7890625</v>
+      </c>
+      <c r="F28" s="10">
+        <f t="shared" si="5"/>
+        <v>-5.8663721115459477E-3</v>
+      </c>
+      <c r="G28" s="10">
+        <f t="shared" si="6"/>
+        <v>5.1821429233250837E-3</v>
+      </c>
+      <c r="H28" s="10">
+        <f t="shared" si="7"/>
+        <v>-3.0400378723439461E-5</v>
+      </c>
+      <c r="I28" s="10">
+        <f t="shared" si="8"/>
+        <v>-3.4211720425425529E-4</v>
+      </c>
+      <c r="J28" s="10">
+        <f t="shared" si="9"/>
+        <v>2.006986825917232E-6</v>
+      </c>
+      <c r="K28" s="10">
+        <f t="shared" si="13"/>
+        <v>4.9751243781094526E-3</v>
+      </c>
+      <c r="L28" s="10">
+        <f t="shared" si="14"/>
+        <v>6.3364768198806961E-3</v>
+      </c>
+      <c r="M28" s="10">
+        <f t="shared" si="10"/>
+        <v>6.3364768198806961E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="11">
+        <v>9</v>
+      </c>
+      <c r="C29" s="9">
+        <f t="shared" si="11"/>
+        <v>0.78515625</v>
+      </c>
+      <c r="D29" s="9">
+        <f t="shared" si="4"/>
+        <v>0.787109375</v>
+      </c>
+      <c r="E29" s="9">
+        <f t="shared" si="12"/>
+        <v>0.7890625</v>
+      </c>
+      <c r="F29" s="10">
+        <f t="shared" si="5"/>
+        <v>-3.4211720425425529E-4</v>
+      </c>
+      <c r="G29" s="10">
+        <f t="shared" si="6"/>
+        <v>5.1821429233250837E-3</v>
+      </c>
+      <c r="H29" s="10">
+        <f t="shared" si="7"/>
+        <v>-1.7729002489739514E-6</v>
+      </c>
+      <c r="I29" s="10">
+        <f t="shared" si="8"/>
+        <v>2.4200174753510328E-3</v>
+      </c>
+      <c r="J29" s="10">
+        <f t="shared" si="9"/>
+        <v>-8.2792961291353657E-7</v>
+      </c>
+      <c r="K29" s="10">
+        <f t="shared" si="13"/>
+        <v>2.4813895781637717E-3</v>
+      </c>
+      <c r="L29" s="10">
+        <f t="shared" si="14"/>
+        <v>3.1525346501733277E-3</v>
+      </c>
+      <c r="M29" s="10">
+        <f t="shared" si="10"/>
+        <v>3.1525346501733277E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="11">
+        <v>10</v>
+      </c>
+      <c r="C30" s="9">
+        <f t="shared" si="11"/>
+        <v>0.78515625</v>
+      </c>
+      <c r="D30" s="9">
+        <f t="shared" si="4"/>
+        <v>0.7861328125</v>
+      </c>
+      <c r="E30" s="9">
+        <f t="shared" si="12"/>
+        <v>0.787109375</v>
+      </c>
+      <c r="F30" s="10">
+        <f t="shared" si="5"/>
+        <v>-3.4211720425425529E-4</v>
+      </c>
+      <c r="G30" s="10">
+        <f t="shared" si="6"/>
+        <v>2.4200174753510328E-3</v>
+      </c>
+      <c r="H30" s="10">
+        <f t="shared" si="7"/>
+        <v>-8.2792961291353657E-7</v>
+      </c>
+      <c r="I30" s="10">
+        <f t="shared" si="8"/>
+        <v>1.0389506309586016E-3</v>
+      </c>
+      <c r="J30" s="10">
+        <f t="shared" si="9"/>
+        <v>-3.5544288522175131E-7</v>
+      </c>
+      <c r="K30" s="10">
+        <f t="shared" si="13"/>
+        <v>1.2422360248447205E-3</v>
+      </c>
+      <c r="L30" s="10">
+        <f t="shared" si="14"/>
+        <v>1.5801859496161414E-3</v>
+      </c>
+      <c r="M30" s="10">
+        <f t="shared" si="10"/>
+        <v>1.5801859496161414E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="11">
+        <v>11</v>
+      </c>
+      <c r="C31" s="9">
+        <f t="shared" si="11"/>
+        <v>0.78515625</v>
+      </c>
+      <c r="D31" s="9">
+        <f t="shared" si="4"/>
+        <v>0.78564453125</v>
+      </c>
+      <c r="E31" s="9">
+        <f t="shared" si="12"/>
+        <v>0.7861328125</v>
+      </c>
+      <c r="F31" s="10">
+        <f t="shared" si="5"/>
+        <v>-3.4211720425425529E-4</v>
+      </c>
+      <c r="G31" s="10">
+        <f t="shared" si="6"/>
+        <v>1.0389506309586016E-3</v>
+      </c>
+      <c r="H31" s="10">
+        <f t="shared" si="7"/>
+        <v>-3.5544288522175131E-7</v>
+      </c>
+      <c r="I31" s="10">
+        <f t="shared" si="8"/>
+        <v>3.4841675488672674E-4</v>
+      </c>
+      <c r="J31" s="10">
+        <f t="shared" si="9"/>
+        <v>-1.1919936609718709E-7</v>
+      </c>
+      <c r="K31" s="10">
+        <f t="shared" si="13"/>
+        <v>6.215040397762585E-4</v>
+      </c>
+      <c r="L31" s="10">
+        <f t="shared" si="14"/>
+        <v>7.9107537194641228E-4</v>
+      </c>
+      <c r="M31" s="10">
+        <f>L31</f>
+        <v>7.9107537194641228E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="11">
+        <v>12</v>
+      </c>
+      <c r="C32" s="9">
+        <f t="shared" si="11"/>
+        <v>0.78515625</v>
+      </c>
+      <c r="D32" s="9">
+        <f t="shared" si="4"/>
+        <v>0.785400390625</v>
+      </c>
+      <c r="E32" s="9">
+        <f t="shared" si="12"/>
+        <v>0.78564453125</v>
+      </c>
+      <c r="F32" s="10">
+        <f t="shared" si="5"/>
+        <v>-3.4211720425425529E-4</v>
+      </c>
+      <c r="G32" s="10">
+        <f t="shared" si="6"/>
+        <v>3.4841675488672674E-4</v>
+      </c>
+      <c r="H32" s="10">
+        <f t="shared" si="7"/>
+        <v>-1.1919936609718709E-7</v>
+      </c>
+      <c r="I32" s="10">
+        <f t="shared" si="8"/>
+        <v>3.1497754101605935E-6</v>
+      </c>
+      <c r="J32" s="10">
+        <f t="shared" si="9"/>
+        <v>-1.0775923573529426E-9</v>
+      </c>
+      <c r="K32" s="10">
+        <f t="shared" si="13"/>
+        <v>3.1084861672365556E-4</v>
+      </c>
+      <c r="L32" s="10">
+        <f t="shared" si="14"/>
+        <v>3.9578362887786545E-4</v>
+      </c>
+      <c r="M32" s="10">
+        <f t="shared" ref="M32:M40" si="15">L32</f>
+        <v>3.9578362887786545E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="11">
+        <v>13</v>
+      </c>
+      <c r="C33" s="9">
+        <f t="shared" si="11"/>
+        <v>0.78515625</v>
+      </c>
+      <c r="D33" s="9">
+        <f t="shared" si="4"/>
+        <v>0.7852783203125</v>
+      </c>
+      <c r="E33" s="9">
+        <f t="shared" si="12"/>
+        <v>0.785400390625</v>
+      </c>
+      <c r="F33" s="10">
+        <f t="shared" si="5"/>
+        <v>-3.4211720425425529E-4</v>
+      </c>
+      <c r="G33" s="10">
+        <f t="shared" si="6"/>
+        <v>3.1497754101605935E-6</v>
+      </c>
+      <c r="H33" s="10">
+        <f t="shared" si="7"/>
+        <v>-1.0775923573529426E-9</v>
+      </c>
+      <c r="I33" s="10">
+        <f t="shared" si="8"/>
+        <v>-1.6948371568481502E-4</v>
+      </c>
+      <c r="J33" s="10">
+        <f t="shared" si="9"/>
+        <v>5.7983294976711989E-8</v>
+      </c>
+      <c r="K33" s="10">
+        <f t="shared" si="13"/>
+        <v>1.55448468832582E-4</v>
+      </c>
+      <c r="L33" s="10">
+        <f t="shared" si="14"/>
+        <v>1.9795334317993343E-4</v>
+      </c>
+      <c r="M33" s="10">
+        <f t="shared" si="15"/>
+        <v>1.9795334317993343E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="11">
+        <v>14</v>
+      </c>
+      <c r="C34" s="9">
+        <f t="shared" si="11"/>
+        <v>0.7852783203125</v>
+      </c>
+      <c r="D34" s="9">
+        <f t="shared" si="4"/>
+        <v>0.78533935546875</v>
+      </c>
+      <c r="E34" s="9">
+        <f t="shared" si="12"/>
+        <v>0.785400390625</v>
+      </c>
+      <c r="F34" s="10">
+        <f t="shared" si="5"/>
+        <v>-1.6948371568481502E-4</v>
+      </c>
+      <c r="G34" s="10">
+        <f t="shared" si="6"/>
+        <v>3.1497754101605935E-6</v>
+      </c>
+      <c r="H34" s="10">
+        <f t="shared" si="7"/>
+        <v>-5.3383564008667964E-10</v>
+      </c>
+      <c r="I34" s="10">
+        <f t="shared" si="8"/>
+        <v>-8.3166970292314346E-5</v>
+      </c>
+      <c r="J34" s="10">
+        <f t="shared" si="9"/>
+        <v>1.4095447147390061E-8</v>
+      </c>
+      <c r="K34" s="10">
+        <f t="shared" si="13"/>
+        <v>7.7718193829175411E-5</v>
+      </c>
+      <c r="L34" s="10">
+        <f t="shared" si="14"/>
+        <v>9.8961287611503058E-5</v>
+      </c>
+      <c r="M34" s="10">
+        <f t="shared" si="15"/>
+        <v>9.8961287611503058E-5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="11">
+        <v>15</v>
+      </c>
+      <c r="C35" s="9">
+        <f t="shared" si="11"/>
+        <v>0.78533935546875</v>
+      </c>
+      <c r="D35" s="9">
+        <f t="shared" si="4"/>
+        <v>0.785369873046875</v>
+      </c>
+      <c r="E35" s="9">
+        <f t="shared" si="12"/>
+        <v>0.785400390625</v>
+      </c>
+      <c r="F35" s="10">
+        <f t="shared" si="5"/>
+        <v>-8.3166970292314346E-5</v>
+      </c>
+      <c r="G35" s="10">
+        <f t="shared" si="6"/>
+        <v>3.1497754101605935E-6</v>
+      </c>
+      <c r="H35" s="10">
+        <f t="shared" si="7"/>
+        <v>-2.6195727796428832E-10</v>
+      </c>
+      <c r="I35" s="10">
+        <f t="shared" si="8"/>
+        <v>-4.0008597459784134E-5</v>
+      </c>
+      <c r="J35" s="10">
+        <f t="shared" si="9"/>
+        <v>3.3273938363750304E-9</v>
+      </c>
+      <c r="K35" s="10">
+        <f t="shared" si="13"/>
+        <v>3.8857586943850786E-5</v>
+      </c>
+      <c r="L35" s="10">
+        <f t="shared" si="14"/>
+        <v>4.9476798483625511E-5</v>
+      </c>
+      <c r="M35" s="10">
+        <f t="shared" si="15"/>
+        <v>4.9476798483625511E-5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B36" s="11">
+        <v>16</v>
+      </c>
+      <c r="C36" s="9">
+        <f t="shared" si="11"/>
+        <v>0.785369873046875</v>
+      </c>
+      <c r="D36" s="9">
+        <f t="shared" si="4"/>
+        <v>0.7853851318359375</v>
+      </c>
+      <c r="E36" s="9">
+        <f t="shared" si="12"/>
+        <v>0.785400390625</v>
+      </c>
+      <c r="F36" s="10">
+        <f t="shared" si="5"/>
+        <v>-4.0008597459784134E-5</v>
+      </c>
+      <c r="G36" s="10">
+        <f t="shared" si="6"/>
+        <v>3.1497754101605935E-6</v>
+      </c>
+      <c r="H36" s="10">
+        <f t="shared" si="7"/>
+        <v>-1.2601809647384166E-10</v>
+      </c>
+      <c r="I36" s="10">
+        <f t="shared" si="8"/>
+        <v>-1.8429411026921194E-5</v>
+      </c>
+      <c r="J36" s="10">
+        <f t="shared" si="9"/>
+        <v>7.37334887196997E-10</v>
+      </c>
+      <c r="K36" s="10">
+        <f t="shared" si="13"/>
+        <v>1.942841600124342E-5</v>
+      </c>
+      <c r="L36" s="10">
+        <f t="shared" si="14"/>
+        <v>2.4737437995327246E-5</v>
+      </c>
+      <c r="M36" s="10">
+        <f t="shared" si="15"/>
+        <v>2.4737437995327246E-5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B37" s="11">
+        <v>17</v>
+      </c>
+      <c r="C37" s="9">
+        <f t="shared" si="11"/>
+        <v>0.7853851318359375</v>
+      </c>
+      <c r="D37" s="9">
+        <f t="shared" si="4"/>
+        <v>0.78539276123046875</v>
+      </c>
+      <c r="E37" s="9">
+        <f t="shared" si="12"/>
+        <v>0.785400390625</v>
+      </c>
+      <c r="F37" s="10">
+        <f t="shared" si="5"/>
+        <v>-1.8429411026921194E-5</v>
+      </c>
+      <c r="G37" s="10">
+        <f t="shared" si="6"/>
+        <v>3.1497754101605935E-6</v>
+      </c>
+      <c r="H37" s="10">
+        <f t="shared" si="7"/>
+        <v>-5.804850567633887E-11</v>
+      </c>
+      <c r="I37" s="10">
+        <f t="shared" si="8"/>
+        <v>-7.6398178087133672E-6</v>
+      </c>
+      <c r="J37" s="10">
+        <f t="shared" si="9"/>
+        <v>1.4079734256757104E-10</v>
+      </c>
+      <c r="K37" s="10">
+        <f t="shared" si="13"/>
+        <v>9.7141136357013097E-6</v>
+      </c>
+      <c r="L37" s="10">
+        <f t="shared" si="14"/>
+        <v>1.2368478696547041E-5</v>
+      </c>
+      <c r="M37" s="10">
+        <f t="shared" si="15"/>
+        <v>1.2368478696547041E-5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B38" s="11">
+        <v>18</v>
+      </c>
+      <c r="C38" s="9">
+        <f t="shared" si="11"/>
+        <v>0.78539276123046875</v>
+      </c>
+      <c r="D38" s="9">
+        <f t="shared" si="4"/>
+        <v>0.78539657592773438</v>
+      </c>
+      <c r="E38" s="9">
+        <f t="shared" si="12"/>
+        <v>0.785400390625</v>
+      </c>
+      <c r="F38" s="10">
+        <f t="shared" si="5"/>
+        <v>-7.6398178087133672E-6</v>
+      </c>
+      <c r="G38" s="10">
+        <f t="shared" si="6"/>
+        <v>3.1497754101605935E-6</v>
+      </c>
+      <c r="H38" s="10">
+        <f t="shared" si="7"/>
+        <v>-2.4063710271992354E-11</v>
+      </c>
+      <c r="I38" s="10">
+        <f t="shared" si="8"/>
+        <v>-2.2450211992763869E-6</v>
+      </c>
+      <c r="J38" s="10">
+        <f t="shared" si="9"/>
+        <v>1.7151552939170781E-11</v>
+      </c>
+      <c r="K38" s="10">
+        <f t="shared" si="13"/>
+        <v>4.8570332269643058E-6</v>
+      </c>
+      <c r="L38" s="10">
+        <f t="shared" si="14"/>
+        <v>6.1841792743074162E-6</v>
+      </c>
+      <c r="M38" s="10">
+        <f t="shared" si="15"/>
+        <v>6.1841792743074162E-6</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B39" s="11">
+        <v>19</v>
+      </c>
+      <c r="C39" s="9">
+        <f t="shared" si="11"/>
+        <v>0.78539657592773438</v>
+      </c>
+      <c r="D39" s="9">
+        <f>(E39+C39)/2</f>
+        <v>0.78539848327636719</v>
+      </c>
+      <c r="E39" s="9">
+        <f t="shared" si="12"/>
+        <v>0.785400390625</v>
+      </c>
+      <c r="F39" s="10">
+        <f t="shared" si="5"/>
+        <v>-2.2450211992763869E-6</v>
+      </c>
+      <c r="G39" s="10">
+        <f t="shared" si="6"/>
+        <v>3.1497754101605935E-6</v>
+      </c>
+      <c r="H39" s="10">
+        <f t="shared" si="7"/>
+        <v>-7.0713125687700088E-12</v>
+      </c>
+      <c r="I39" s="10">
+        <f t="shared" si="8"/>
+        <v>4.523771054421033E-7</v>
+      </c>
+      <c r="J39" s="10">
+        <f t="shared" si="9"/>
+        <v>-1.0155961917848112E-12</v>
+      </c>
+      <c r="K39" s="10">
+        <f t="shared" si="13"/>
+        <v>2.4285107158035333E-6</v>
+      </c>
+      <c r="L39" s="10">
+        <f t="shared" si="14"/>
+        <v>3.0920746188263078E-6</v>
+      </c>
+      <c r="M39" s="10">
+        <f t="shared" si="15"/>
+        <v>3.0920746188263078E-6</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B40" s="11">
+        <v>20</v>
+      </c>
+      <c r="C40" s="9">
+        <f t="shared" si="11"/>
+        <v>0.78539657592773438</v>
+      </c>
+      <c r="D40" s="9">
+        <f t="shared" si="4"/>
+        <v>0.78539752960205078</v>
+      </c>
+      <c r="E40" s="9">
+        <f t="shared" si="12"/>
+        <v>0.78539848327636719</v>
+      </c>
+      <c r="F40" s="10">
+        <f t="shared" si="5"/>
+        <v>-2.2450211992763869E-6</v>
+      </c>
+      <c r="G40" s="10">
+        <f t="shared" si="6"/>
+        <v>4.523771054421033E-7</v>
+      </c>
+      <c r="H40" s="10">
+        <f t="shared" si="7"/>
+        <v>-1.0155961917848112E-12</v>
+      </c>
+      <c r="I40" s="10">
+        <f t="shared" si="8"/>
+        <v>-8.9632204691714179E-7</v>
+      </c>
+      <c r="J40" s="10">
+        <f t="shared" si="9"/>
+        <v>2.0122619967077877E-12</v>
+      </c>
+      <c r="K40" s="10">
+        <f t="shared" si="13"/>
+        <v>1.2142568323196313E-6</v>
+      </c>
+      <c r="L40" s="10">
+        <f t="shared" si="14"/>
+        <v>1.5460410639881655E-6</v>
+      </c>
+      <c r="M40" s="10">
+        <f t="shared" si="15"/>
+        <v>1.5460410639881655E-6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>